--- a/reports.xlsx
+++ b/reports.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Detailed Daily Report</t>
   </si>
@@ -69,6 +69,99 @@
   </si>
   <si>
     <t xml:space="preserve">SELECT distinct y.PK_RF_COMPANY, y.DESCRIPTION_AR AS DESCRIPTION_Name, ADJUSTED.TRANSACTION_DATE AS TRANSACTION_DATE, TODAYS_CLOSE_PRICE AS CLOSE_PRICE, PREVIOUS_CLOSE_PRICE, EARNINGS, SHAREHOLDERS_EQUITY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES, NUMBER_OF_SHARES_FLOATED AS NUMBER_OF_SHARES_FLOATED, Sector.PK_RF_SECTOR, SectorOrder.SORTED_BY, SectorOrder.NAME_AR , IS_SUSPENDED_FOR_REPORTS AS IS_SUSPENDED_FOR_REPORTS, Sector.FOREIGN_COMPANY FROM WEB.RF_COMPANY y, WEB.HS_TE_STOCK_ADJUSTED ADJUSTED, WEB.RATIO_REPORT , SACP.RF_COMPANY Sector, WEB.RF_SECTOR SectorOrder WHERE to_number( y.PK_RF_COMPANY) = to_number(FK_TE_SYMBOL) AND TRUNC(TRANSACTION_DATE) = TRUNC(SYSTIMESTAMP) AND to_number( y.PK_RF_COMPANY) = to_number(FK_RF_COMPANY) AND Sector.PK_RF_SECTOR =SectorOrder.PK_RF_SECTOR AND y.PK_RF_COMPANY = Sector.PK_RF_COMPANY AND Sector.MARKET_TYPE ='M' ORDER BY SectorOrder.SORTED_BY, y.PK_RF_COMPANY </t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  c.pk_rf_company, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, c.LONG_NAME_EN, c.LONG_NAME_AR SHORT_NAME_AR, webc.LONG_DESCRIPTION_AR LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, s.pk_rf_sector , s.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades, periodend.per pe , Yield.value Dividend_Yield,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , RATIO_REPORT.NUMBER_OF_SHARES NUMBER_OF_SHARES,  RATIO_REPORT.NUMBER_OF_SHARES_FLOATED NUMBER_OF_SHARES_FLOATED, RATIO_REPORT.IS_SUSPENDED_FOR_REPORTS IS_SUSPENDED_FOR_REPORTS, div.amount Dividend , RATIO_REPORT.NUMBER_OF_SHARES           * PeriodEnd.calc_close_price Market_Cap, (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, s.SORTED_BY, periodEnd.percent_change todays_percent_change FROM (SELECT fk_te_symbol,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE) = trunc(sysdate) group by fk_te_symbol) Period  left outer join ( SELECT fk_te_symbol, SUM(to_number(net_change)) YTDchange FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY fk_te_symbol ) YTD ON trim(period.fk_te_symbol) = trim(ytd.fk_te_symbol) inner join ( SELECT fk_te_symbol, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT fk_te_symbol, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN  ( SELECT MIN(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY fk_te_symbol ) ) t1 LEFT OUTER JOIN ( SELECT fk_te_symbol fk_te_symbol2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN ( SELECT MAX(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY fk_te_symbol ) ) t2  ON trim(t1.fk_te_symbol) = trim(t2.fk_te_symbol2) ) t ) YTDSTART ON trim(YTD.fk_te_symbol) = trim(YTDSTART.fk_te_symbol) left outer join ( SELECT fk_te_symbol, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY fk_te_symbol ) MTD ON trim(period.fk_te_symbol) = trim(mtd.fk_te_symbol) ,  ( SELECT fk_te_symbol, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)  ) group by fk_te_symbol  )    UNION ALL SELECT fk_te_symbol, previous_close_price beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE fk_te_symbol NOT IN ( SELECT DISTINCT  (fk_te_symbol) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)   = trunc(sysdate)  ) ) and trunc(TRANSACTION_DATE)  = trunc(sysdate)  group by fk_te_symbol  ) ) PeriodStart ,( SELECT fk_te_symbol, PREVIOUS_CLOSE_PRICE, todays_open, pk_hs_te_stock, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_TE_STOCK_ADJUSTED WHERE ( fk_te_symbol, TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)   group by fk_te_symbol )) PeriodEnd,  ( SELECT MAX(TRANSACTION_DATE) AS realDate FROM web.HS_TE_STOCK_ADJUSTED ) realtable ,  web.rf_company webc, sacp.rf_company c left outer join SACP.CI_DIVIDEND_VIEW div ON div.pk_rf_company = c.pk_rf_company left outer join ( SELECT FK_RF_COMPANY, value FROM SACP.ST_STATEMENT_VALUES  WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 AND ( FK_RF_COMPANY, PERIOD_DATE ) IN ( SELECT FK_RF_COMPANY, MAX(PERIOD_DATE) FROM SACP.ST_STATEMENT_VALUES WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 GROUP BY FK_RF_COMPANY ) ) Yield ON Yield.FK_RF_COMPANY = div.pk_rf_company , sacp.rf_sector s, sacp.rf_company comp, SACP.CI_SHARE_PROFILE_HIST_VIEW prof, efp.te_stock st ,  web.RATIO_REPORT RATIO_REPORT WHERE periodstart.fk_te_symbol = periodend.fk_te_symbol AND period.fk_te_symbol = periodend.fk_te_symbol AND c.pk_rf_company = to_number(period.fk_te_symbol) AND  Comp.PK_RF_SECTOR = S.PK_RF_SECTOR AND Comp.PK_RF_COMPANY = C.PK_RF_COMPANY AND prof.fk_rf_company = c.pk_rf_company AND RATIO_REPORT.FK_RF_COMPANY = c.pk_rf_company AND to_char(prof.asat_date, 'yyyy') = to_char(realtable.realDate, 'yyyy')  AND webc.pk_rf_company = c.pk_rf_company AND period.fk_te_symbol = st.fk_te_symbol AND comp.MARKET_TYPE='M') t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  c.pk_rf_company, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, c.LONG_NAME_EN, c.LONG_NAME_AR SHORT_NAME_AR, webc.LONG_DESCRIPTION_AR LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, s.pk_rf_sector , s.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades, periodend.per pe , Yield.value Dividend_Yield,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , RATIO_REPORT.NUMBER_OF_SHARES NUMBER_OF_SHARES,  RATIO_REPORT.NUMBER_OF_SHARES_FLOATED NUMBER_OF_SHARES_FLOATED, RATIO_REPORT.IS_SUSPENDED_FOR_REPORTS IS_SUSPENDED_FOR_REPORTS, div.amount Dividend , RATIO_REPORT.NUMBER_OF_SHARES           * PeriodEnd.calc_close_price Market_Cap, (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, s.SORTED_BY, periodEnd.percent_change todays_percent_change FROM (SELECT fk_te_symbol,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE) between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day) group by fk_te_symbol) Period  left outer join ( SELECT fk_te_symbol, SUM(to_number(net_change)) YTDchange FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY fk_te_symbol ) YTD ON trim(period.fk_te_symbol) = trim(ytd.fk_te_symbol) inner join ( SELECT fk_te_symbol, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT fk_te_symbol, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN  ( SELECT MIN(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY fk_te_symbol ) ) t1 LEFT OUTER JOIN ( SELECT fk_te_symbol fk_te_symbol2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN ( SELECT MAX(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY fk_te_symbol ) ) t2  ON trim(t1.fk_te_symbol) = trim(t2.fk_te_symbol2) ) t ) YTDSTART ON trim(YTD.fk_te_symbol) = trim(YTDSTART.fk_te_symbol) left outer join ( SELECT fk_te_symbol, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY fk_te_symbol ) MTD ON trim(period.fk_te_symbol) = trim(mtd.fk_te_symbol) ,  ( SELECT fk_te_symbol, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) group by fk_te_symbol  )    UNION ALL SELECT fk_te_symbol, previous_close_price beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE fk_te_symbol NOT IN ( SELECT DISTINCT  (fk_te_symbol) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)   between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) ) and trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  group by fk_te_symbol  ) ) PeriodStart ,( SELECT fk_te_symbol, PREVIOUS_CLOSE_PRICE, todays_open, pk_hs_te_stock, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_TE_STOCK_ADJUSTED WHERE ( fk_te_symbol, TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)   group by fk_te_symbol )) PeriodEnd,  ( SELECT MAX(TRANSACTION_DATE) AS realDate FROM web.HS_TE_STOCK_ADJUSTED ) realtable ,  web.rf_company webc, sacp.rf_company c left outer join SACP.CI_DIVIDEND_VIEW div ON div.pk_rf_company = c.pk_rf_company left outer join ( SELECT FK_RF_COMPANY, value FROM SACP.ST_STATEMENT_VALUES  WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 AND ( FK_RF_COMPANY, PERIOD_DATE ) IN ( SELECT FK_RF_COMPANY, MAX(PERIOD_DATE) FROM SACP.ST_STATEMENT_VALUES WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 GROUP BY FK_RF_COMPANY ) ) Yield ON Yield.FK_RF_COMPANY = div.pk_rf_company , sacp.rf_sector s, sacp.rf_company comp, SACP.CI_SHARE_PROFILE_HIST_VIEW prof, efp.te_stock st ,  web.RATIO_REPORT RATIO_REPORT WHERE periodstart.fk_te_symbol = periodend.fk_te_symbol AND period.fk_te_symbol = periodend.fk_te_symbol AND c.pk_rf_company = to_number(period.fk_te_symbol) AND  Comp.PK_RF_SECTOR = S.PK_RF_SECTOR AND Comp.PK_RF_COMPANY = C.PK_RF_COMPANY AND prof.fk_rf_company = c.pk_rf_company AND RATIO_REPORT.FK_RF_COMPANY = c.pk_rf_company AND to_char(prof.asat_date, 'yyyy') = to_char(realtable.realDate, 'yyyy')  AND webc.pk_rf_company = c.pk_rf_company AND period.fk_te_symbol = st.fk_te_symbol AND comp.MARKET_TYPE='M') t  order by Volume  desc,SORTED_BY asc,PK_RF_COMPANY asc FETCH FIRST 5 ROWS ONLY</t>
+  </si>
+  <si>
+    <t>Main Market</t>
+  </si>
+  <si>
+    <t>SBL Report</t>
+  </si>
+  <si>
+    <t>Nomu Market</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  c.pk_rf_company, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, c.LONG_NAME_EN, c.LONG_NAME_AR SHORT_NAME_AR, webc.LONG_DESCRIPTION_AR LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, s.pk_rf_sector , s.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades, periodend.per pe , Yield.value Dividend_Yield,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , RATIO_REPORT.NUMBER_OF_SHARES NUMBER_OF_SHARES,  RATIO_REPORT.NUMBER_OF_SHARES_FLOATED NUMBER_OF_SHARES_FLOATED, RATIO_REPORT.IS_SUSPENDED_FOR_REPORTS IS_SUSPENDED_FOR_REPORTS, div.amount Dividend , RATIO_REPORT.NUMBER_OF_SHARES           * PeriodEnd.calc_close_price Market_Cap, (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, s.SORTED_BY, periodEnd.percent_change todays_percent_change FROM (SELECT fk_te_symbol,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE) = trunc(sysdate) group by fk_te_symbol) Period  left outer join ( SELECT fk_te_symbol, SUM(to_number(net_change)) YTDchange FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY fk_te_symbol ) YTD ON trim(period.fk_te_symbol) = trim(ytd.fk_te_symbol) inner join ( SELECT fk_te_symbol, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT fk_te_symbol, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN  ( SELECT MIN(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY fk_te_symbol ) ) t1 LEFT OUTER JOIN ( SELECT fk_te_symbol fk_te_symbol2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN ( SELECT MAX(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY fk_te_symbol ) ) t2  ON trim(t1.fk_te_symbol) = trim(t2.fk_te_symbol2) ) t ) YTDSTART ON trim(YTD.fk_te_symbol) = trim(YTDSTART.fk_te_symbol) left outer join ( SELECT fk_te_symbol, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY fk_te_symbol ) MTD ON trim(period.fk_te_symbol) = trim(mtd.fk_te_symbol) ,  ( SELECT fk_te_symbol, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)  ) group by fk_te_symbol  )    UNION ALL SELECT fk_te_symbol, previous_close_price beginPRICE FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MIN(TRANSACTION_DATE) FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE fk_te_symbol NOT IN ( SELECT DISTINCT  (fk_te_symbol) FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)   = trunc(sysdate)  ) ) and trunc(TRANSACTION_DATE)  = trunc(sysdate)  group by fk_te_symbol  ) ) PeriodStart ,( SELECT fk_te_symbol, PREVIOUS_CLOSE_PRICE, todays_open, pk_hs_te_stock, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE ( fk_te_symbol, TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_SME_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)   group by fk_te_symbol )) PeriodEnd,  ( SELECT MAX(TRANSACTION_DATE) AS realDate FROM web.HS_TE_SME_STOCK_ADJUSTED ) realtable ,  web.rf_company webc, sacp.rf_company c left outer join SACP.CI_DIVIDEND_VIEW div ON div.pk_rf_company = c.pk_rf_company left outer join ( SELECT FK_RF_COMPANY, value FROM SACP.ST_STATEMENT_VALUES  WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 AND ( FK_RF_COMPANY, PERIOD_DATE ) IN ( SELECT FK_RF_COMPANY, MAX(PERIOD_DATE) FROM SACP.ST_STATEMENT_VALUES WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 GROUP BY FK_RF_COMPANY ) ) Yield ON Yield.FK_RF_COMPANY = div.pk_rf_company , sacp.rf_sector s, sacp.rf_company comp, SACP.CI_SHARE_PROFILE_HIST_VIEW prof, efp.te_sme_stock st ,  web.RATIO_REPORT RATIO_REPORT WHERE periodstart.fk_te_symbol = periodend.fk_te_symbol AND period.fk_te_symbol = periodend.fk_te_symbol AND c.pk_rf_company = to_number(period.fk_te_symbol) AND  Comp.PK_RF_SECTOR = S.PK_RF_SECTOR AND Comp.PK_RF_COMPANY = C.PK_RF_COMPANY AND prof.fk_rf_company = c.pk_rf_company AND RATIO_REPORT.FK_RF_COMPANY = c.pk_rf_company AND to_char(prof.asat_date, 'yyyy') = to_char(realtable.realDate, 'yyyy')  AND webc.pk_rf_company = c.pk_rf_company AND period.fk_te_symbol = st.fk_te_symbol AND comp.MARKET_TYPE='S') t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  c.pk_rf_company, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, c.LONG_NAME_EN, c.LONG_NAME_AR SHORT_NAME_AR, webc.LONG_DESCRIPTION_AR LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, s.pk_rf_sector , s.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades, periodend.per pe , Yield.value Dividend_Yield,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , RATIO_REPORT.NUMBER_OF_SHARES NUMBER_OF_SHARES,  RATIO_REPORT.NUMBER_OF_SHARES_FLOATED NUMBER_OF_SHARES_FLOATED, RATIO_REPORT.IS_SUSPENDED_FOR_REPORTS IS_SUSPENDED_FOR_REPORTS, div.amount Dividend , RATIO_REPORT.NUMBER_OF_SHARES           * PeriodEnd.calc_close_price Market_Cap, (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, s.SORTED_BY, periodEnd.percent_change todays_percent_change FROM (SELECT fk_te_symbol,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE) between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day) group by fk_te_symbol) Period  left outer join ( SELECT fk_te_symbol, SUM(to_number(net_change)) YTDchange FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY fk_te_symbol ) YTD ON trim(period.fk_te_symbol) = trim(ytd.fk_te_symbol) inner join ( SELECT fk_te_symbol, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT fk_te_symbol, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN  ( SELECT MIN(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY fk_te_symbol ) ) t1 LEFT OUTER JOIN ( SELECT fk_te_symbol fk_te_symbol2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN ( SELECT MAX(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY fk_te_symbol ) ) t2  ON trim(t1.fk_te_symbol) = trim(t2.fk_te_symbol2) ) t ) YTDSTART ON trim(YTD.fk_te_symbol) = trim(YTDSTART.fk_te_symbol) left outer join ( SELECT fk_te_symbol, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY fk_te_symbol ) MTD ON trim(period.fk_te_symbol) = trim(mtd.fk_te_symbol) ,  ( SELECT fk_te_symbol, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) group by fk_te_symbol  )    UNION ALL SELECT fk_te_symbol, previous_close_price beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE fk_te_symbol NOT IN ( SELECT DISTINCT  (fk_te_symbol) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)   between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) ) and trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  group by fk_te_symbol  ) ) PeriodStart ,( SELECT fk_te_symbol, PREVIOUS_CLOSE_PRICE, todays_open, pk_hs_te_stock, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_TE_STOCK_ADJUSTED WHERE ( fk_te_symbol, TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)   group by fk_te_symbol )) PeriodEnd,  ( SELECT MAX(TRANSACTION_DATE) AS realDate FROM web.HS_TE_STOCK_ADJUSTED ) realtable ,  web.rf_company webc, sacp.rf_company c left outer join SACP.CI_DIVIDEND_VIEW div ON div.pk_rf_company = c.pk_rf_company left outer join ( SELECT FK_RF_COMPANY, value FROM SACP.ST_STATEMENT_VALUES  WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 AND ( FK_RF_COMPANY, PERIOD_DATE ) IN ( SELECT FK_RF_COMPANY, MAX(PERIOD_DATE) FROM SACP.ST_STATEMENT_VALUES WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 GROUP BY FK_RF_COMPANY ) ) Yield ON Yield.FK_RF_COMPANY = div.pk_rf_company , sacp.rf_sector s, sacp.rf_company comp, SACP.CI_SHARE_PROFILE_HIST_VIEW prof, efp.te_stock st ,  web.RATIO_REPORT RATIO_REPORT WHERE periodstart.fk_te_symbol = periodend.fk_te_symbol AND period.fk_te_symbol = periodend.fk_te_symbol AND c.pk_rf_company = to_number(period.fk_te_symbol) AND  Comp.PK_RF_SECTOR = S.PK_RF_SECTOR AND Comp.PK_RF_COMPANY = C.PK_RF_COMPANY AND prof.fk_rf_company = c.pk_rf_company AND RATIO_REPORT.FK_RF_COMPANY = c.pk_rf_company AND to_char(prof.asat_date, 'yyyy') = to_char(realtable.realDate, 'yyyy')  AND webc.pk_rf_company = c.pk_rf_company AND period.fk_te_symbol = st.fk_te_symbol AND comp.MARKET_TYPE='M') t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM(SELECT WEBC.PK_RF_CONTRACT, WEBC.ACRYNOM_en ACRYNOM_NAME, WEBC.DESCRIPTION_en SHORT_NAME, WEBC.LONG_DESCRIPTION_en LONG_DESCRIPTION , PERIOD.HIGH_PRICE, PERIOD.LOW_PRICE, CASE WHEN LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE =0 OR TO_NUMBER(PERIODSTART.BEGINPRICE) = 0 THEN 0 ELSE ( LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE - PERIODSTART.BEGINPRICE) END AS CHANGE, CASE WHEN TO_NUMBER(PERIODSTART.BEGINPRICE) = 0 OR LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE =0 THEN 0 ELSE 100 * TO_NUMBER(( LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE - PERIODSTART.BEGINPRICE )) / TO_NUMBER(PERIODSTART.BEGINPRICE) END AS CHANGEPERCENT, PERIOD.NO_OF_TRADES, PERIODSTART.BEGINPRICE, LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE CLOSE_PRICE, PERIOD.VALUE, PERIOD.VOLUME, PERIODEND.PREVIOUS_CLOSE_PRICE, PERIODEND.CALC_CLOSE_PRICE LAST_TRADE_PRICE, OPENPRICEPERIOD.TODAYS_OPEN, PERIODEND.PERCENT_CHANGE TODAYS_PERCENT_CHANGE, PERIODEND.SETTLEMENT_PRICE, PERIODEND.FINAL_SETTLEMENT_PRICE, OPENINTEREST.OPEN_INTEREST, WEBC.TRADED_THROUGH_DATE, PERIODEND.TRANSACTION_DATE AS MARKET_DATE FROM ( (SELECT FK_DER_CONTRACT, MAX(HIGH_PRICE) HIGH_PRICE, MIN(LOW_PRICE) LOW_PRICE, SUM(NO_OF_TRADES) NO_OF_TRADES, SUM(TURNOVER) VALUE, SUM(VOLUME_TRADED) VOLUME FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) = trunc(sysdate) AND NO_OF_TRADES&gt;0 GROUP BY FK_DER_CONTRACT) PERIOD RIGHT OUTER JOIN ( SELECT FK_DER_CONTRACT, TODAYS_CLOSE_PRICE FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN( SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) = trunc(sysdate) AND NO_OF_TRADES &gt;0 GROUP BY FK_DER_CONTRACT ) ) LASTTRADEPRICEPERIOD ON LASTTRADEPRICEPERIOD.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT RIGHT OUTER JOIN ( SELECT FK_DER_CONTRACT, TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN( SELECT FK_DER_CONTRACT, MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) = trunc(sysdate) AND NO_OF_TRADES &gt;0 GROUP BY FK_DER_CONTRACT ))OPENPRICEPERIOD ON OPENPRICEPERIOD.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT RIGHT OUTER JOIN (SELECT FK_DER_CONTRACT, CASE WHEN PREVIOUS_CLOSE_PRICE = 0 THEN SETTLEMENT_PRICE ELSE PREVIOUS_CLOSE_PRICE END BEGINPRICE, TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRANSACTION_DATE &lt;= (SELECT MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) = trunc(sysdate) ) GROUP BY FK_DER_CONTRACT) UNION ALL SELECT FK_DER_CONTRACT, PREVIOUS_CLOSE_PRICE BEGINPRICE , TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE FK_DER_CONTRACT NOT IN (SELECT DISTINCT ( FK_DER_CONTRACT ) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRANSACTION_DATE &lt;= (SELECT MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) = trunc(sysdate) )) AND TRUNC(TRANSACTION_DATE) = trunc(sysdate) GROUP BY FK_DER_CONTRACT)) PERIODSTART ON PERIODSTART.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT), (SELECT FK_DER_CONTRACT, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN, PK_HS_DER_CONTRACT, PERCENT_CHANGE, TODAYS_CLOSE_PRICE AS CALC_CLOSE_PRICE, SETTLEMENT_PRICE, FINAL_SETTLEMENT_PRICE, TRANSACTION_DATE FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) = trunc(sysdate) GROUP BY FK_DER_CONTRACT)) PERIODEND, ( SELECT FK_DER_CONTRACT, OPEN_INTEREST AS OPEN_INTEREST FROM EFP.DERIVATIVES_STOCK ) OPENINTEREST, WEB.RF_DERIVATIVES_CONTRACT WEBC WHERE PERIODSTART.FK_DER_CONTRACT = PERIODEND.FK_DER_CONTRACT AND WEBC.PK_RF_CONTRACT = PERIODSTART.FK_DER_CONTRACT AND WEBC.PK_RF_CONTRACT = OPENINTEREST.FK_DER_CONTRACT AND WEBC.ACTIVE =1 AND WEBC.DERIVATIVE_SUB_TYPE ='S' ) T order by TRADED_THROUGH_DATE ASC, PK_RF_CONTRACT asc</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM(SELECT WEBC.PK_RF_CONTRACT, WEBC.ACRYNOM_en ACRYNOM_NAME, WEBC.DESCRIPTION_en SHORT_NAME, WEBC.LONG_DESCRIPTION_en LONG_DESCRIPTION , PERIOD.HIGH_PRICE, PERIOD.LOW_PRICE, CASE WHEN LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE =0 OR TO_NUMBER(PERIODSTART.BEGINPRICE) = 0 THEN 0 ELSE ( LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE - PERIODSTART.BEGINPRICE) END AS CHANGE, CASE WHEN TO_NUMBER(PERIODSTART.BEGINPRICE) = 0 OR LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE =0 THEN 0 ELSE 100 * TO_NUMBER(( LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE - PERIODSTART.BEGINPRICE )) / TO_NUMBER(PERIODSTART.BEGINPRICE) END AS CHANGEPERCENT, PERIOD.NO_OF_TRADES, PERIODSTART.BEGINPRICE, LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE CLOSE_PRICE, PERIOD.VALUE, PERIOD.VOLUME, PERIODEND.PREVIOUS_CLOSE_PRICE, PERIODEND.CALC_CLOSE_PRICE LAST_TRADE_PRICE, OPENPRICEPERIOD.TODAYS_OPEN, PERIODEND.PERCENT_CHANGE TODAYS_PERCENT_CHANGE, PERIODEND.SETTLEMENT_PRICE, PERIODEND.FINAL_SETTLEMENT_PRICE, OPENINTEREST.OPEN_INTEREST, WEBC.TRADED_THROUGH_DATE, PERIODEND.TRANSACTION_DATE AS MARKET_DATE FROM ( (SELECT FK_DER_CONTRACT, MAX(HIGH_PRICE) HIGH_PRICE, MIN(LOW_PRICE) LOW_PRICE, SUM(NO_OF_TRADES) NO_OF_TRADES, SUM(TURNOVER) VALUE, SUM(VOLUME_TRADED) VOLUME FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) AND NO_OF_TRADES&gt;0 GROUP BY FK_DER_CONTRACT) PERIOD RIGHT OUTER JOIN ( SELECT FK_DER_CONTRACT, TODAYS_CLOSE_PRICE FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN( SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) AND NO_OF_TRADES &gt;0 GROUP BY FK_DER_CONTRACT ) ) LASTTRADEPRICEPERIOD ON LASTTRADEPRICEPERIOD.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT RIGHT OUTER JOIN ( SELECT FK_DER_CONTRACT, TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN( SELECT FK_DER_CONTRACT, MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) AND NO_OF_TRADES &gt;0 GROUP BY FK_DER_CONTRACT ))OPENPRICEPERIOD ON OPENPRICEPERIOD.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT RIGHT OUTER JOIN (SELECT FK_DER_CONTRACT, CASE WHEN PREVIOUS_CLOSE_PRICE = 0 THEN SETTLEMENT_PRICE ELSE PREVIOUS_CLOSE_PRICE END BEGINPRICE, TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRANSACTION_DATE &lt;= (SELECT MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) ) GROUP BY FK_DER_CONTRACT) UNION ALL SELECT FK_DER_CONTRACT, PREVIOUS_CLOSE_PRICE BEGINPRICE , TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE FK_DER_CONTRACT NOT IN (SELECT DISTINCT ( FK_DER_CONTRACT ) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRANSACTION_DATE &lt;= (SELECT MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) )) AND TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) GROUP BY FK_DER_CONTRACT)) PERIODSTART ON PERIODSTART.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT), (SELECT FK_DER_CONTRACT, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN, PK_HS_DER_CONTRACT, PERCENT_CHANGE, TODAYS_CLOSE_PRICE AS CALC_CLOSE_PRICE, SETTLEMENT_PRICE, FINAL_SETTLEMENT_PRICE, TRANSACTION_DATE FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '6' day ) and trunc(systimestamp - interval '3' hour) GROUP BY FK_DER_CONTRACT)) PERIODEND, ( SELECT FK_DER_CONTRACT, OPEN_INTEREST AS OPEN_INTEREST FROM EFP.DERIVATIVES_STOCK ) OPENINTEREST, WEB.RF_DERIVATIVES_CONTRACT WEBC WHERE PERIODSTART.FK_DER_CONTRACT = PERIODEND.FK_DER_CONTRACT AND WEBC.PK_RF_CONTRACT = PERIODSTART.FK_DER_CONTRACT AND WEBC.PK_RF_CONTRACT = OPENINTEREST.FK_DER_CONTRACT AND WEBC.ACTIVE =1 AND WEBC.DERIVATIVE_SUB_TYPE ='S' ) T order by TRADED_THROUGH_DATE ASC, PK_RF_CONTRACT asc</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM(SELECT WEBC.PK_RF_CONTRACT, WEBC.ACRYNOM_en ACRYNOM_NAME, WEBC.DESCRIPTION_en SHORT_NAME, WEBC.LONG_DESCRIPTION_en LONG_DESCRIPTION , PERIOD.HIGH_PRICE, PERIOD.LOW_PRICE, CASE WHEN LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE =0 OR TO_NUMBER(PERIODSTART.BEGINPRICE) = 0 THEN 0 ELSE ( LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE - PERIODSTART.BEGINPRICE) END AS CHANGE, CASE WHEN TO_NUMBER(PERIODSTART.BEGINPRICE) = 0 OR LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE =0 THEN 0 ELSE 100 * TO_NUMBER(( LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE - PERIODSTART.BEGINPRICE )) / TO_NUMBER(PERIODSTART.BEGINPRICE) END AS CHANGEPERCENT, PERIOD.NO_OF_TRADES, PERIODSTART.BEGINPRICE, LASTTRADEPRICEPERIOD.TODAYS_CLOSE_PRICE CLOSE_PRICE, PERIOD.VALUE, PERIOD.VOLUME, PERIODEND.PREVIOUS_CLOSE_PRICE, PERIODEND.CALC_CLOSE_PRICE LAST_TRADE_PRICE, OPENPRICEPERIOD.TODAYS_OPEN, PERIODEND.PERCENT_CHANGE TODAYS_PERCENT_CHANGE, PERIODEND.SETTLEMENT_PRICE, PERIODEND.FINAL_SETTLEMENT_PRICE, OPENINTEREST.OPEN_INTEREST, WEBC.TRADED_THROUGH_DATE, PERIODEND.TRANSACTION_DATE AS MARKET_DATE FROM ( (SELECT FK_DER_CONTRACT, MAX(HIGH_PRICE) HIGH_PRICE, MIN(LOW_PRICE) LOW_PRICE, SUM(NO_OF_TRADES) NO_OF_TRADES, SUM(TURNOVER) VALUE, SUM(VOLUME_TRADED) VOLUME FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) AND NO_OF_TRADES&gt;0 GROUP BY FK_DER_CONTRACT) PERIOD RIGHT OUTER JOIN ( SELECT FK_DER_CONTRACT, TODAYS_CLOSE_PRICE FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN( SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) AND NO_OF_TRADES &gt;0 GROUP BY FK_DER_CONTRACT ) ) LASTTRADEPRICEPERIOD ON LASTTRADEPRICEPERIOD.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT RIGHT OUTER JOIN ( SELECT FK_DER_CONTRACT, TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN( SELECT FK_DER_CONTRACT, MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) AND NO_OF_TRADES &gt;0 GROUP BY FK_DER_CONTRACT ))OPENPRICEPERIOD ON OPENPRICEPERIOD.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT RIGHT OUTER JOIN (SELECT FK_DER_CONTRACT, CASE WHEN PREVIOUS_CLOSE_PRICE = 0 THEN SETTLEMENT_PRICE ELSE PREVIOUS_CLOSE_PRICE END BEGINPRICE, TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRANSACTION_DATE &lt;= (SELECT MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) ) GROUP BY FK_DER_CONTRACT) UNION ALL SELECT FK_DER_CONTRACT, PREVIOUS_CLOSE_PRICE BEGINPRICE , TODAYS_OPEN FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE FK_DER_CONTRACT NOT IN (SELECT DISTINCT ( FK_DER_CONTRACT ) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRANSACTION_DATE &lt;= (SELECT MIN(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) )) AND TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) GROUP BY FK_DER_CONTRACT)) PERIODSTART ON PERIODSTART.FK_DER_CONTRACT = PERIOD.FK_DER_CONTRACT), (SELECT FK_DER_CONTRACT, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN, PK_HS_DER_CONTRACT, PERCENT_CHANGE, TODAYS_CLOSE_PRICE AS CALC_CLOSE_PRICE, SETTLEMENT_PRICE, FINAL_SETTLEMENT_PRICE, TRANSACTION_DATE FROM WEB.HS_DERIVATIVES_STOCK WHERE ( FK_DER_CONTRACT, TRANSACTION_DATE ) IN (SELECT FK_DER_CONTRACT, MAX(TRANSACTION_DATE) FROM WEB.HS_DERIVATIVES_STOCK WHERE TRUNC(TRANSACTION_DATE) between TO_DATE ('2022-07-22', 'yyyy-MM-dd') and trunc(systimestamp - interval '3' hour ) GROUP BY FK_DER_CONTRACT)) PERIODEND, ( SELECT FK_DER_CONTRACT, OPEN_INTEREST AS OPEN_INTEREST FROM EFP.DERIVATIVES_STOCK ) OPENINTEREST, WEB.RF_DERIVATIVES_CONTRACT WEBC WHERE PERIODSTART.FK_DER_CONTRACT = PERIODEND.FK_DER_CONTRACT AND WEBC.PK_RF_CONTRACT = PERIODSTART.FK_DER_CONTRACT AND WEBC.PK_RF_CONTRACT = OPENINTEREST.FK_DER_CONTRACT AND WEBC.ACTIVE =1 AND WEBC.DERIVATIVE_SUB_TYPE ='S' ) T order by TRADED_THROUGH_DATE ASC, PK_RF_CONTRACT asc</t>
+  </si>
+  <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>Mutual Funds Monthly Report</t>
+  </si>
+  <si>
+    <t>Mutual Funds Quarterly Report</t>
+  </si>
+  <si>
+    <t>Mutual Funds Annual Report</t>
+  </si>
+  <si>
+    <t>ETFs Monthly Report</t>
+  </si>
+  <si>
+    <t>ETFs Quarterly Report</t>
+  </si>
+  <si>
+    <t>ETFs Annual Report</t>
+  </si>
+  <si>
+    <t>Sukuk &amp; Bonds</t>
+  </si>
+  <si>
+    <t>Sukuk/Bonds Monthly Report</t>
+  </si>
+  <si>
+    <t>Sukuk/Bonds Quarterly Report</t>
+  </si>
+  <si>
+    <t>Sukuk/Bonds Annual Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TBL1.FUND_NAME, TBL1.UNIT_PRICE, TBL1.YTD_CHANGE, TBL1.CODE, TBL1.NAME, TBL1.STD_DEV, TBL1.SHARPE_RATIO, NVL((TBL1.UNIT_PRICE - TBL2.UNIT_PRICE),0) AS CHANGE,  (case when TBL2.UNIT_PRICE &lt;&gt; 0 THEN  NVL(((TBL1.UNIT_PRICE - TBL2.UNIT_PRICE)/TBL2.UNIT_PRICE)*100,0) ELSE 0 end) AS CHANGE_PERCENTAGE FROM (SELECT MF_FUND_DATA.LONG_NAME_EN AS FUND_NAME, MF_FUND_NAV.UNIT_PRICE AS UNIT_PRICE,   MF_FUND_NAV.YTD_CHANGE AS YTD_CHANGE, MF_FUND_DATA.CODE, MANGER.NAME_EN NAME, MF_FUND_NAV.STD_DEV, MF_FUND_NAV.SHARPE_RATIO  FROM SACP.MF_FUND_DATA MF_FUND_DATA, SACP.MF_FUND_NAV MF_FUND_NAV, SACP.RF_BANK MANGER WHERE     TO_NUMBER(TRIM(MF_FUND_DATA.CODE)) = TO_NUMBER(TRIM(MF_FUND_NAV.CODE)) AND     MANGER.PK_RF_BANK = MF_FUND_DATA.FK_RF_BANK AND   ( TO_NUMBER(TRIM(MF_FUND_DATA.CODE)), MF_FUND_NAV.VALUATION_DATE ) IN ( SELECT TO_NUMBER(TRIM(MF_FUND_NAV.CODE)), MAX(MF_FUND_NAV.VALUATION_DATE) FROM SACP.MF_FUND_NAV MF_FUND_NAV GROUP BY TRIM(MF_FUND_NAV.CODE) ) ) TBL1   LEFT JOIN   (SELECT MF_FUND_NAV.UNIT_PRICE AS UNIT_PRICE,MF_FUND_DATA.CODE    FROM SACP.MF_FUND_DATA MF_FUND_DATA, SACP.MF_FUND_NAV MF_FUND_NAV   WHERE TO_NUMBER(TRIM(MF_FUND_DATA.CODE)) = TO_NUMBER(TRIM(MF_FUND_NAV.CODE)) AND  ( TO_NUMBER(TRIM(MF_FUND_DATA.CODE)), MF_FUND_NAV.VALUATION_DATE ) IN ( SELECT TO_NUMBER(TRIM(MF_FUND_NAV.CODE)), MAX(MF_FUND_NAV.VALUATION_DATE) FROM SACP.MF_FUND_NAV MF_FUND_NAV   WHERE TO_CHAR(MF_FUND_NAV.VALUATION_DATE,'yyyymm') &lt;= (TO_CHAR(SYSDATE,'yyyymm') - 1)    GROUP BY TRIM(MF_FUND_NAV.CODE) ) ) TBL2  ON TBL1.CODE = TBL2.CODE    order by TBL1.CODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TBL1.FUND_NAME, TBL1.UNIT_PRICE, TBL1.YTD_CHANGE, TBL1.CODE, TBL1.NAME, TBL1.STD_DEV, TBL1.SHARPE_RATIO, NVL((TBL1.UNIT_PRICE - TBL2.UNIT_PRICE),0) AS CHANGE,  (case when TBL2.UNIT_PRICE &lt;&gt; 0 THEN  NVL(((TBL1.UNIT_PRICE - TBL2.UNIT_PRICE)/TBL2.UNIT_PRICE)*100,0) ELSE 0 end) AS CHANGE_PERCENTAGE FROM (SELECT MF_FUND_DATA.LONG_NAME_EN AS FUND_NAME, MF_FUND_NAV.UNIT_PRICE AS UNIT_PRICE,   MF_FUND_NAV.YTD_CHANGE AS YTD_CHANGE, MF_FUND_DATA.CODE, MANGER.NAME_EN NAME, MF_FUND_NAV.STD_DEV, MF_FUND_NAV.SHARPE_RATIO  FROM SACP.MF_FUND_DATA MF_FUND_DATA, SACP.MF_FUND_NAV MF_FUND_NAV, SACP.RF_BANK MANGER WHERE     TO_NUMBER(TRIM(MF_FUND_DATA.CODE)) = TO_NUMBER(TRIM(MF_FUND_NAV.CODE)) AND     MANGER.PK_RF_BANK = MF_FUND_DATA.FK_RF_BANK AND   ( TO_NUMBER(TRIM(MF_FUND_DATA.CODE)), MF_FUND_NAV.VALUATION_DATE ) IN ( SELECT TO_NUMBER(TRIM(MF_FUND_NAV.CODE)), MAX(MF_FUND_NAV.VALUATION_DATE) FROM SACP.MF_FUND_NAV MF_FUND_NAV GROUP BY TRIM(MF_FUND_NAV.CODE) ) ) TBL1   LEFT JOIN   (SELECT MF_FUND_NAV.UNIT_PRICE AS UNIT_PRICE,MF_FUND_DATA.CODE    FROM SACP.MF_FUND_DATA MF_FUND_DATA, SACP.MF_FUND_NAV MF_FUND_NAV   WHERE TO_NUMBER(TRIM(MF_FUND_DATA.CODE)) = TO_NUMBER(TRIM(MF_FUND_NAV.CODE)) AND  ( TO_NUMBER(TRIM(MF_FUND_DATA.CODE)), MF_FUND_NAV.VALUATION_DATE ) IN ( SELECT TO_NUMBER(TRIM(MF_FUND_NAV.CODE)), MAX(MF_FUND_NAV.VALUATION_DATE) FROM SACP.MF_FUND_NAV MF_FUND_NAV   WHERE TO_CHAR(MF_FUND_NAV.VALUATION_DATE,'yyyymm') &lt;= (TO_CHAR(SYSDATE,'yyyymm') - 3)    GROUP BY TRIM(MF_FUND_NAV.CODE) ) ) TBL2  ON TBL1.CODE = TBL2.CODE    order by TBL1.CODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TBL1.FUND_NAME, TBL1.UNIT_PRICE, TBL1.YTD_CHANGE, TBL1.CODE, TBL1.NAME, TBL1.STD_DEV, TBL1.SHARPE_RATIO, NVL((TBL1.UNIT_PRICE - TBL2.UNIT_PRICE),0) AS CHANGE,  (case when TBL2.UNIT_PRICE &lt;&gt; 0 THEN  NVL(((TBL1.UNIT_PRICE - TBL2.UNIT_PRICE)/TBL2.UNIT_PRICE)*100,0) ELSE 0 end) AS CHANGE_PERCENTAGE FROM (SELECT MF_FUND_DATA.LONG_NAME_EN AS FUND_NAME, MF_FUND_NAV.UNIT_PRICE AS UNIT_PRICE,   MF_FUND_NAV.YTD_CHANGE AS YTD_CHANGE, MF_FUND_DATA.CODE, MANGER.NAME_EN NAME, MF_FUND_NAV.STD_DEV, MF_FUND_NAV.SHARPE_RATIO  FROM SACP.MF_FUND_DATA MF_FUND_DATA, SACP.MF_FUND_NAV MF_FUND_NAV, SACP.RF_BANK MANGER WHERE     TO_NUMBER(TRIM(MF_FUND_DATA.CODE)) = TO_NUMBER(TRIM(MF_FUND_NAV.CODE)) AND     MANGER.PK_RF_BANK = MF_FUND_DATA.FK_RF_BANK AND   ( TO_NUMBER(TRIM(MF_FUND_DATA.CODE)), MF_FUND_NAV.VALUATION_DATE ) IN ( SELECT TO_NUMBER(TRIM(MF_FUND_NAV.CODE)), MAX(MF_FUND_NAV.VALUATION_DATE) FROM SACP.MF_FUND_NAV MF_FUND_NAV GROUP BY TRIM(MF_FUND_NAV.CODE) ) ) TBL1   LEFT JOIN   (SELECT MF_FUND_NAV.UNIT_PRICE AS UNIT_PRICE,MF_FUND_DATA.CODE    FROM SACP.MF_FUND_DATA MF_FUND_DATA, SACP.MF_FUND_NAV MF_FUND_NAV   WHERE TO_NUMBER(TRIM(MF_FUND_DATA.CODE)) = TO_NUMBER(TRIM(MF_FUND_NAV.CODE)) AND  ( TO_NUMBER(TRIM(MF_FUND_DATA.CODE)), MF_FUND_NAV.VALUATION_DATE ) IN ( SELECT TO_NUMBER(TRIM(MF_FUND_NAV.CODE)), MAX(MF_FUND_NAV.VALUATION_DATE) FROM SACP.MF_FUND_NAV MF_FUND_NAV   WHERE TO_CHAR(MF_FUND_NAV.VALUATION_DATE,'yyyymm') &lt;= (TO_CHAR(SYSDATE,'yyyymm') - 12)    GROUP BY TRIM(MF_FUND_NAV.CODE) ) ) TBL2  ON TBL1.CODE = TBL2.CODE    order by TBL1.CODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT DISTINCT * FROM (   select  webc.PK_ETF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_AR ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.PK_HS_ETF_STOCK PERIOD_END_DATE, Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, periodEnd.percent_change todays_percent_change, AUMDATA.NAV_VALUE,  AUMDATA.UNIT_VALUE,   AUMDATA.AUM  FROM (SELECT FK_ETF_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE) between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day) group by FK_ETF_SYMBOL) Period  left outer join ( SELECT FK_ETF_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_ETF_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_ETF_SYMBOL ) YTD ON trim(period.FK_ETF_SYMBOL) = trim(ytd.FK_ETF_SYMBOL) inner join ( SELECT FK_ETF_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_ETF_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_ETF_STOCK WHERE ( TRANSACTION_DATE,FK_ETF_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_ETF_SYMBOL FROM web.HS_ETF_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_ETF_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_ETF_SYMBOL FK_ETF_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_ETF_STOCK WHERE ( TRANSACTION_DATE,FK_ETF_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_ETF_SYMBOL FROM web.HS_ETF_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_ETF_SYMBOL ) ) t2  ON trim(t1.FK_ETF_SYMBOL) = trim(t2.FK_ETF_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_ETF_SYMBOL) = trim(YTDSTART.FK_ETF_SYMBOL) left outer join ( SELECT FK_ETF_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_ETF_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_ETF_SYMBOL ) MTD ON trim(period.FK_ETF_SYMBOL) = trim(mtd.FK_ETF_SYMBOL) ,  ( SELECT FK_ETF_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_ETF_STOCK WHERE  ( FK_ETF_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) group by FK_ETF_SYMBOL  )    UNION ALL SELECT FK_ETF_SYMBOL, previous_close_price beginPRICE FROM web.HS_ETF_STOCK WHERE  ( FK_ETF_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE FK_ETF_SYMBOL NOT IN ( SELECT DISTINCT  (FK_ETF_SYMBOL) FROM web.HS_ETF_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)   between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) ) and trunc(TRANSACTION_DATE)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  group by FK_ETF_SYMBOL  ) ) PeriodStart ,( SELECT FK_ETF_SYMBOL, PREVIOUS_CLOSE_PRICE, todays_open, PK_HS_ETF_STOCK, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_ETF_STOCK WHERE ( FK_ETF_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)   group by FK_ETF_SYMBOL )) PeriodEnd, (   SELECT  PK_ETF_SYMBOL, NAV_VALUE,  UNIT_VALUE, PK_HS_ETF_STOCK,  CASE WHEN NAV_VALUE IS NULL   OR  UNIT_VALUE IS NULL THEN 0  ELSE NAV_VALUE *  UNIT_VALUE  END AS AUM  FROM web.HS_ETF_NAV_DATA  WHERE  (  PK_ETF_SYMBOL, PK_HS_ETF_STOCK )    IN  (   SELECT  PK_ETF_SYMBOL, MAX(PK_HS_ETF_STOCK) FROM web.HS_ETF_NAV_DATA WHERE TRUNC(PK_HS_ETF_STOCK)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  GROUP BY PK_ETF_SYMBOL )) AUMDATA,  efp.etf_stock st, WEB.ETF_COMPANY webc   WHERE periodstart.FK_ETF_SYMBOL = periodend.FK_ETF_SYMBOL AND period.FK_ETF_SYMBOL = periodend.FK_ETF_SYMBOL      AND period.FK_ETF_SYMBOL = st.FK_ETF_SYMBOL  AND period.FK_ETF_SYMBOL = webc.PK_ETF_COMPANY AND AUMDATA.PK_ETF_SYMBOL = webc.PK_ETF_COMPANY ) t  where changepercent &lt; 0  order by changepercent asc,PK_ETF_COMPANY asc FETCH FIRST 5 ROWS ONLY</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  webc.PK_ETF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_AR ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.PK_HS_ETF_STOCK PERIOD_END_DATE, Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, periodEnd.percent_change todays_percent_change, AUMDATA.NAV_VALUE,  AUMDATA.UNIT_VALUE,   AUMDATA.AUM  FROM (SELECT FK_ETF_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE) between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day) group by FK_ETF_SYMBOL) Period  left outer join ( SELECT FK_ETF_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_ETF_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_ETF_SYMBOL ) YTD ON trim(period.FK_ETF_SYMBOL) = trim(ytd.FK_ETF_SYMBOL) inner join ( SELECT FK_ETF_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_ETF_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_ETF_STOCK WHERE ( TRANSACTION_DATE,FK_ETF_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_ETF_SYMBOL FROM web.HS_ETF_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_ETF_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_ETF_SYMBOL FK_ETF_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_ETF_STOCK WHERE ( TRANSACTION_DATE,FK_ETF_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_ETF_SYMBOL FROM web.HS_ETF_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_ETF_SYMBOL ) ) t2  ON trim(t1.FK_ETF_SYMBOL) = trim(t2.FK_ETF_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_ETF_SYMBOL) = trim(YTDSTART.FK_ETF_SYMBOL) left outer join ( SELECT FK_ETF_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_ETF_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_ETF_SYMBOL ) MTD ON trim(period.FK_ETF_SYMBOL) = trim(mtd.FK_ETF_SYMBOL) ,  ( SELECT FK_ETF_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_ETF_STOCK WHERE  ( FK_ETF_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) group by FK_ETF_SYMBOL  )    UNION ALL SELECT FK_ETF_SYMBOL, previous_close_price beginPRICE FROM web.HS_ETF_STOCK WHERE  ( FK_ETF_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE FK_ETF_SYMBOL NOT IN ( SELECT DISTINCT  (FK_ETF_SYMBOL) FROM web.HS_ETF_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)   between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) ) and trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  group by FK_ETF_SYMBOL  ) ) PeriodStart ,( SELECT FK_ETF_SYMBOL, PREVIOUS_CLOSE_PRICE, todays_open, PK_HS_ETF_STOCK, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_ETF_STOCK WHERE ( FK_ETF_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)   group by FK_ETF_SYMBOL )) PeriodEnd, (   SELECT  PK_ETF_SYMBOL, NAV_VALUE,  UNIT_VALUE, PK_HS_ETF_STOCK,  CASE WHEN NAV_VALUE IS NULL   OR  UNIT_VALUE IS NULL THEN 0  ELSE NAV_VALUE *  UNIT_VALUE  END AS AUM  FROM web.HS_ETF_NAV_DATA  WHERE  (  PK_ETF_SYMBOL, PK_HS_ETF_STOCK )    IN  (   SELECT  PK_ETF_SYMBOL, MAX(PK_HS_ETF_STOCK) FROM web.HS_ETF_NAV_DATA WHERE TRUNC(PK_HS_ETF_STOCK)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  GROUP BY PK_ETF_SYMBOL )) AUMDATA,  efp.etf_stock st, WEB.ETF_COMPANY webc   WHERE periodstart.FK_ETF_SYMBOL = periodend.FK_ETF_SYMBOL AND period.FK_ETF_SYMBOL = periodend.FK_ETF_SYMBOL      AND period.FK_ETF_SYMBOL = st.FK_ETF_SYMBOL  AND period.FK_ETF_SYMBOL = webc.PK_ETF_COMPANY AND AUMDATA.PK_ETF_SYMBOL = webc.PK_ETF_COMPANY ) t  where changepercent &lt; 0  order by changepercent asc,PK_ETF_COMPANY asc FETCH FIRST 5 ROWS ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT DISTINCT * FROM (   select  webc.PK_ETF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_AR ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.PK_HS_ETF_STOCK PERIOD_END_DATE, Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, periodEnd.percent_change todays_percent_change, AUMDATA.NAV_VALUE,  AUMDATA.UNIT_VALUE,   AUMDATA.AUM  FROM (SELECT FK_ETF_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE) = trunc(sysdate) group by FK_ETF_SYMBOL) Period  left outer join ( SELECT FK_ETF_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_ETF_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_ETF_SYMBOL ) YTD ON trim(period.FK_ETF_SYMBOL) = trim(ytd.FK_ETF_SYMBOL) inner join ( SELECT FK_ETF_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_ETF_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_ETF_STOCK WHERE ( TRANSACTION_DATE,FK_ETF_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_ETF_SYMBOL FROM web.HS_ETF_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_ETF_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_ETF_SYMBOL FK_ETF_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_ETF_STOCK WHERE ( TRANSACTION_DATE,FK_ETF_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_ETF_SYMBOL FROM web.HS_ETF_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_ETF_SYMBOL ) ) t2  ON trim(t1.FK_ETF_SYMBOL) = trim(t2.FK_ETF_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_ETF_SYMBOL) = trim(YTDSTART.FK_ETF_SYMBOL) left outer join ( SELECT FK_ETF_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_ETF_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_ETF_SYMBOL ) MTD ON trim(period.FK_ETF_SYMBOL) = trim(mtd.FK_ETF_SYMBOL) ,  ( SELECT FK_ETF_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_ETF_STOCK WHERE  ( FK_ETF_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)  ) group by FK_ETF_SYMBOL  )    UNION ALL SELECT FK_ETF_SYMBOL, previous_close_price beginPRICE FROM web.HS_ETF_STOCK WHERE  ( FK_ETF_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE FK_ETF_SYMBOL NOT IN ( SELECT DISTINCT  (FK_ETF_SYMBOL) FROM web.HS_ETF_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)   = trunc(sysdate)  ) ) and trunc(TRANSACTION_DATE)  = trunc(sysdate)  group by FK_ETF_SYMBOL  ) ) PeriodStart ,( SELECT FK_ETF_SYMBOL, PREVIOUS_CLOSE_PRICE, todays_open, PK_HS_ETF_STOCK, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_ETF_STOCK WHERE ( FK_ETF_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_ETF_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_ETF_STOCK WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)   group by FK_ETF_SYMBOL )) PeriodEnd, (   SELECT  PK_ETF_SYMBOL, NAV_VALUE,  UNIT_VALUE, PK_HS_ETF_STOCK,  CASE WHEN NAV_VALUE IS NULL   OR  UNIT_VALUE IS NULL THEN 0  ELSE NAV_VALUE *  UNIT_VALUE  END AS AUM  FROM web.HS_ETF_NAV_DATA  WHERE  (  PK_ETF_SYMBOL, PK_HS_ETF_STOCK )    IN  (   SELECT  PK_ETF_SYMBOL, MAX(PK_HS_ETF_STOCK) FROM web.HS_ETF_NAV_DATA WHERE TRUNC(PK_HS_ETF_STOCK)  = trunc(sysdate)  GROUP BY PK_ETF_SYMBOL )) AUMDATA,  efp.etf_stock st, WEB.ETF_COMPANY webc   WHERE periodstart.FK_ETF_SYMBOL = periodend.FK_ETF_SYMBOL AND period.FK_ETF_SYMBOL = periodend.FK_ETF_SYMBOL      AND period.FK_ETF_SYMBOL = st.FK_ETF_SYMBOL  AND period.FK_ETF_SYMBOL = webc.PK_ETF_COMPANY AND AUMDATA.PK_ETF_SYMBOL = webc.PK_ETF_COMPANY ) t  order by PK_ETF_COMPANY asc</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  webc.PK_RF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.TRANSACTION_DATE PERIOD_END_DATE, c.pk_rf_sector , c.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.TODAYS_OPEN_PRICE, c.SORTED_BY, periodEnd.percent_change todays_percent_change,  bondprofile.SIZE_OF_ISSUE_BOND  SIZE_OF_ISSUE_BOND , Ratio_report.NUMBER_OF_SHARES NUMBER_OF_SHARES,  Ratio_report.INITIAL_PRICE INITIAL_PRICE ,  NVL (Ratio_report.INITIAL_PRICE,0)  * NVL(Ratio_report.NUMBER_OF_SHARES, 0)  AS MARKETCAP   FROM  (SELECT FK_FI_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE) between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day) group by fk_fi_symbol) Period  LEFT OUTER JOIN  ( select FK_RF_COMPANY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES,INITIAL_PRICE AS INITIAL_PRICE FROM  WEB.RATIO_REPORT REPORT    ) Ratio_report  ON trim(period.FK_FI_SYMBOL) = trim(Ratio_report.FK_RF_COMPANY)  left outer join ( SELECT FK_FI_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_FI_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_FI_SYMBOL ) YTD ON trim(period.FK_FI_SYMBOL) = trim(ytd.FK_FI_SYMBOL) inner join ( SELECT FK_FI_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_FI_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_FI_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_FI_SYMBOL FK_FI_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_FI_SYMBOL ) ) t2  ON trim(t1.FK_FI_SYMBOL) = trim(t2.FK_FI_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_FI_SYMBOL) = trim(YTDSTART.FK_FI_SYMBOL) left outer join ( SELECT FK_FI_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_FI_SYMBOL ) MTD ON trim(period.FK_FI_SYMBOL) = trim(mtd.FK_FI_SYMBOL) ,  ( SELECT FK_FI_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) group by FK_FI_SYMBOL  )    UNION ALL SELECT FK_FI_SYMBOL, previous_close_price beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE FK_FI_SYMBOL NOT IN ( SELECT DISTINCT  (FK_FI_SYMBOL) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)   between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) ) and trunc(TRANSACTION_DATE)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)  group by FK_FI_SYMBOL  ) ) PeriodStart ,( SELECT FK_FI_SYMBOL, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN_PRICE, TRANSACTION_DATE, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price   FROM web.HS_FI_STOCK WHERE ( FK_FI_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(add_months(systimestamp,-1) ) and trunc(systimestamp - interval '3' hour - interval '1' day)   group by FK_FI_SYMBOL )) PeriodEnd,    web.FI_COMPANY webc, WEB.RF_SECTOR_SUKUK c, SACP.BOND_ISSUER_PROFILE bondprofile WHERE periodstart.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL AND period.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL       AND period.FK_FI_SYMBOL = webc.PK_RF_COMPANY AND webc.BOND_TYPE = c.SUKUK_TYPE  AND bondprofile.BOND_CODE = webc.PK_RF_COMPANY AND webc.BOND_TYPE IN ('S','G')  AND webc.ACTIVE =1 ) t  where changepercent &lt; 0  order by changepercent asc,SORTED_BY asc,PK_RF_COMPANY asc FETCH FIRST 5 ROWS ONLY</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  webc.PK_RF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.TRANSACTION_DATE PERIOD_END_DATE, c.pk_rf_sector , c.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.TODAYS_OPEN_PRICE, c.SORTED_BY, periodEnd.percent_change todays_percent_change,  bondprofile.SIZE_OF_ISSUE_BOND  SIZE_OF_ISSUE_BOND , Ratio_report.NUMBER_OF_SHARES NUMBER_OF_SHARES,  Ratio_report.INITIAL_PRICE INITIAL_PRICE ,  NVL (Ratio_report.INITIAL_PRICE,0)  * NVL(Ratio_report.NUMBER_OF_SHARES, 0)  AS MARKETCAP   FROM  (SELECT FK_FI_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE) between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day) group by fk_fi_symbol) Period  LEFT OUTER JOIN  ( select FK_RF_COMPANY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES,INITIAL_PRICE AS INITIAL_PRICE FROM  WEB.RATIO_REPORT REPORT    ) Ratio_report  ON trim(period.FK_FI_SYMBOL) = trim(Ratio_report.FK_RF_COMPANY)  left outer join ( SELECT FK_FI_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_FI_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_FI_SYMBOL ) YTD ON trim(period.FK_FI_SYMBOL) = trim(ytd.FK_FI_SYMBOL) inner join ( SELECT FK_FI_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_FI_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_FI_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_FI_SYMBOL FK_FI_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_FI_SYMBOL ) ) t2  ON trim(t1.FK_FI_SYMBOL) = trim(t2.FK_FI_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_FI_SYMBOL) = trim(YTDSTART.FK_FI_SYMBOL) left outer join ( SELECT FK_FI_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_FI_SYMBOL ) MTD ON trim(period.FK_FI_SYMBOL) = trim(mtd.FK_FI_SYMBOL) ,  ( SELECT FK_FI_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) group by FK_FI_SYMBOL  )    UNION ALL SELECT FK_FI_SYMBOL, previous_close_price beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE FK_FI_SYMBOL NOT IN ( SELECT DISTINCT  (FK_FI_SYMBOL) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)   between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  ) ) and trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)  group by FK_FI_SYMBOL  ) ) PeriodStart ,( SELECT FK_FI_SYMBOL, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN_PRICE, TRANSACTION_DATE, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price   FROM web.HS_FI_STOCK WHERE ( FK_FI_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' month - interval '3' hour ) and trunc(systimestamp - interval '3' hour - interval '1' day)   group by FK_FI_SYMBOL )) PeriodEnd,    web.FI_COMPANY webc, WEB.RF_SECTOR_SUKUK c, SACP.BOND_ISSUER_PROFILE bondprofile WHERE periodstart.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL AND period.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL       AND period.FK_FI_SYMBOL = webc.PK_RF_COMPANY AND webc.BOND_TYPE = c.SUKUK_TYPE  AND bondprofile.BOND_CODE = webc.PK_RF_COMPANY AND webc.BOND_TYPE IN ('S','G')  AND webc.ACTIVE =1 ) t  where changepercent &lt; 0  order by changepercent asc,SORTED_BY asc,PK_RF_COMPANY asc FETCH FIRST 5 ROWS ONLY</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT * FROM (   select  webc.PK_RF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.TRANSACTION_DATE PERIOD_END_DATE, c.pk_rf_sector , c.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.TODAYS_OPEN_PRICE, c.SORTED_BY, periodEnd.percent_change todays_percent_change,  bondprofile.SIZE_OF_ISSUE_BOND  SIZE_OF_ISSUE_BOND , Ratio_report.NUMBER_OF_SHARES NUMBER_OF_SHARES,  Ratio_report.INITIAL_PRICE INITIAL_PRICE ,  NVL (Ratio_report.INITIAL_PRICE,0)  * NVL(Ratio_report.NUMBER_OF_SHARES, 0)  AS MARKETCAP   FROM  (SELECT FK_FI_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE) = trunc(sysdate) group by fk_fi_symbol) Period  LEFT OUTER JOIN  ( select FK_RF_COMPANY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES,INITIAL_PRICE AS INITIAL_PRICE FROM  WEB.RATIO_REPORT REPORT    ) Ratio_report  ON trim(period.FK_FI_SYMBOL) = trim(Ratio_report.FK_RF_COMPANY)  left outer join ( SELECT FK_FI_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_FI_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_FI_SYMBOL ) YTD ON trim(period.FK_FI_SYMBOL) = trim(ytd.FK_FI_SYMBOL) inner join ( SELECT FK_FI_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_FI_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_FI_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_FI_SYMBOL FK_FI_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_FI_SYMBOL ) ) t2  ON trim(t1.FK_FI_SYMBOL) = trim(t2.FK_FI_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_FI_SYMBOL) = trim(YTDSTART.FK_FI_SYMBOL) left outer join ( SELECT FK_FI_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_FI_SYMBOL ) MTD ON trim(period.FK_FI_SYMBOL) = trim(mtd.FK_FI_SYMBOL) ,  ( SELECT FK_FI_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)  ) group by FK_FI_SYMBOL  )    UNION ALL SELECT FK_FI_SYMBOL, previous_close_price beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE FK_FI_SYMBOL NOT IN ( SELECT DISTINCT  (FK_FI_SYMBOL) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)   = trunc(sysdate)  ) ) and trunc(TRANSACTION_DATE)  = trunc(sysdate)  group by FK_FI_SYMBOL  ) ) PeriodStart ,( SELECT FK_FI_SYMBOL, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN_PRICE, TRANSACTION_DATE, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price   FROM web.HS_FI_STOCK WHERE ( FK_FI_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)   group by FK_FI_SYMBOL )) PeriodEnd,    web.FI_COMPANY webc, WEB.RF_SECTOR_SUKUK c, SACP.BOND_ISSUER_PROFILE bondprofile WHERE periodstart.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL AND period.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL       AND period.FK_FI_SYMBOL = webc.PK_RF_COMPANY AND webc.BOND_TYPE = c.SUKUK_TYPE  AND bondprofile.BOND_CODE = webc.PK_RF_COMPANY AND webc.BOND_TYPE IN ('S','G')  AND webc.ACTIVE =1 ) t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
   </si>
 </sst>
 </file>
@@ -84,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +497,11 @@
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
@@ -449,15 +554,204 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -68,9 +68,6 @@
     <t>SELECT DISTINCT * FROM ( SELECT    c.pk_rf_company, webc.Description_AR ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, c.LONG_NAME_EN, c.LONG_NAME_AR SHORT_NAME_AR, webc.LONG_DESCRIPTION_AR LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, s.pk_rf_sector , s.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades, periodend.per pe , Yield.value Dividend_Yield,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , RATIO_REPORT.NUMBER_OF_SHARES NUMBER_OF_SHARES,  RATIO_REPORT.NUMBER_OF_SHARES_FLOATED NUMBER_OF_SHARES_FLOATED, RATIO_REPORT.IS_SUSPENDED_FOR_REPORTS IS_SUSPENDED_FOR_REPORTS, div.amount Dividend , RATIO_REPORT.NUMBER_OF_SHARES           * PeriodEnd.calc_close_price Market_Cap, (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, s.SORTED_BY, periodEnd.percent_change todays_percent_change FROM (SELECT fk_te_symbol,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE) between trunc(systimestamp - interval '3' hour - interval '1' Year + interval '1' day ) and trunc(systimestamp - interval '3' hour ) group by fk_te_symbol) Period  left outer join ( SELECT fk_te_symbol, SUM(to_number(net_change)) YTDchange FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY fk_te_symbol ) YTD ON trim(period.fk_te_symbol) = trim(ytd.fk_te_symbol) inner join ( SELECT fk_te_symbol, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT fk_te_symbol, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN  ( SELECT MIN(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY fk_te_symbol ) ) t1 LEFT OUTER JOIN ( SELECT fk_te_symbol fk_te_symbol2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN ( SELECT MAX(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY fk_te_symbol ) ) t2  ON trim(t1.fk_te_symbol) = trim(t2.fk_te_symbol2) ) t ) YTDSTART ON trim(YTD.fk_te_symbol) = trim(YTDSTART.fk_te_symbol) left outer join ( SELECT fk_te_symbol, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY fk_te_symbol ) MTD ON trim(period.fk_te_symbol) = trim(mtd.fk_te_symbol) ,  ( SELECT fk_te_symbol, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' hour - interval '1' Year + interval '1' day ) and trunc(systimestamp - interval '3' hour )  ) group by fk_te_symbol  )    UNION ALL SELECT fk_te_symbol, previous_close_price beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE fk_te_symbol NOT IN ( SELECT DISTINCT  (fk_te_symbol) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)   between trunc(systimestamp - interval '3' hour - interval '1' Year + interval '1' day ) and trunc(systimestamp - interval '3' hour )  ) ) and trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' hour - interval '1' Year + interval '1' day ) and trunc(systimestamp - interval '3' hour )  group by fk_te_symbol  ) ) PeriodStart ,( SELECT fk_te_symbol, PREVIOUS_CLOSE_PRICE, todays_open, pk_hs_te_stock, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_TE_STOCK_ADJUSTED WHERE ( fk_te_symbol, TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  between trunc(systimestamp - interval '3' hour - interval '1' Year + interval '1' day ) and trunc(systimestamp - interval '3' hour )   group by fk_te_symbol )) PeriodEnd,  ( SELECT MAX(TRANSACTION_DATE) AS realDate FROM web.HS_TE_STOCK_ADJUSTED ) realtable ,  web.rf_company webc, sacp.rf_company c left outer join SACP.CI_DIVIDEND_VIEW div ON div.pk_rf_company = c.pk_rf_company left outer join ( SELECT FK_RF_COMPANY, value FROM SACP.ST_STATEMENT_VALUES  WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 AND ( FK_RF_COMPANY, PERIOD_DATE ) IN ( SELECT FK_RF_COMPANY, MAX(PERIOD_DATE) FROM SACP.ST_STATEMENT_VALUES WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 GROUP BY FK_RF_COMPANY ) ) Yield ON Yield.FK_RF_COMPANY = div.pk_rf_company , sacp.rf_sector s, sacp.rf_company comp, SACP.CI_SHARE_PROFILE_HIST_VIEW prof, efp.te_stock st ,  web.RATIO_REPORT RATIO_REPORT WHERE periodstart.fk_te_symbol = periodend.fk_te_symbol AND period.fk_te_symbol = periodend.fk_te_symbol AND c.pk_rf_company = to_number(period.fk_te_symbol) AND  Comp.PK_RF_SECTOR = S.PK_RF_SECTOR AND Comp.PK_RF_COMPANY = C.PK_RF_COMPANY AND prof.fk_rf_company = c.pk_rf_company AND RATIO_REPORT.FK_RF_COMPANY = c.pk_rf_company AND to_char(prof.asat_date, 'yyyy') = to_char(realtable.realDate, 'yyyy')  AND webc.pk_rf_company = c.pk_rf_company AND period.fk_te_symbol = st.fk_te_symbol AND comp.MARKET_TYPE='M') t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT distinct y.PK_RF_COMPANY, y.DESCRIPTION_AR AS DESCRIPTION_Name, ADJUSTED.TRANSACTION_DATE AS TRANSACTION_DATE, TODAYS_CLOSE_PRICE AS CLOSE_PRICE, PREVIOUS_CLOSE_PRICE, EARNINGS, SHAREHOLDERS_EQUITY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES, NUMBER_OF_SHARES_FLOATED AS NUMBER_OF_SHARES_FLOATED, Sector.PK_RF_SECTOR, SectorOrder.SORTED_BY, SectorOrder.NAME_AR , IS_SUSPENDED_FOR_REPORTS AS IS_SUSPENDED_FOR_REPORTS, Sector.FOREIGN_COMPANY FROM WEB.RF_COMPANY y, WEB.HS_TE_STOCK_ADJUSTED ADJUSTED, WEB.RATIO_REPORT , SACP.RF_COMPANY Sector, WEB.RF_SECTOR SectorOrder WHERE to_number( y.PK_RF_COMPANY) = to_number(FK_TE_SYMBOL) AND TRUNC(TRANSACTION_DATE) = TRUNC(SYSTIMESTAMP) AND to_number( y.PK_RF_COMPANY) = to_number(FK_RF_COMPANY) AND Sector.PK_RF_SECTOR =SectorOrder.PK_RF_SECTOR AND y.PK_RF_COMPANY = Sector.PK_RF_COMPANY AND Sector.MARKET_TYPE ='M' ORDER BY SectorOrder.SORTED_BY, y.PK_RF_COMPANY </t>
-  </si>
-  <si>
     <t>SELECT DISTINCT * FROM (   select  c.pk_rf_company, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, c.LONG_NAME_EN, c.LONG_NAME_AR SHORT_NAME_AR, webc.LONG_DESCRIPTION_AR LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, s.pk_rf_sector , s.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades, periodend.per pe , Yield.value Dividend_Yield,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , RATIO_REPORT.NUMBER_OF_SHARES NUMBER_OF_SHARES,  RATIO_REPORT.NUMBER_OF_SHARES_FLOATED NUMBER_OF_SHARES_FLOATED, RATIO_REPORT.IS_SUSPENDED_FOR_REPORTS IS_SUSPENDED_FOR_REPORTS, div.amount Dividend , RATIO_REPORT.NUMBER_OF_SHARES           * PeriodEnd.calc_close_price Market_Cap, (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.todays_open, s.SORTED_BY, periodEnd.percent_change todays_percent_change FROM (SELECT fk_te_symbol,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE) = trunc(sysdate) group by fk_te_symbol) Period  left outer join ( SELECT fk_te_symbol, SUM(to_number(net_change)) YTDchange FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY fk_te_symbol ) YTD ON trim(period.fk_te_symbol) = trim(ytd.fk_te_symbol) inner join ( SELECT fk_te_symbol, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT fk_te_symbol, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN  ( SELECT MIN(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY fk_te_symbol ) ) t1 LEFT OUTER JOIN ( SELECT fk_te_symbol fk_te_symbol2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_TE_STOCK_ADJUSTED WHERE ( TRANSACTION_DATE,fk_te_symbol ) IN ( SELECT MAX(TRANSACTION_DATE), fk_te_symbol FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY fk_te_symbol ) ) t2  ON trim(t1.fk_te_symbol) = trim(t2.fk_te_symbol2) ) t ) YTDSTART ON trim(YTD.fk_te_symbol) = trim(YTDSTART.fk_te_symbol) left outer join ( SELECT fk_te_symbol, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_TE_STOCK_ADJUSTED WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY fk_te_symbol ) MTD ON trim(period.fk_te_symbol) = trim(mtd.fk_te_symbol) ,  ( SELECT fk_te_symbol, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)  ) group by fk_te_symbol  )    UNION ALL SELECT fk_te_symbol, previous_close_price beginPRICE FROM web.HS_TE_STOCK_ADJUSTED WHERE  ( fk_te_symbol,TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE fk_te_symbol NOT IN ( SELECT DISTINCT  (fk_te_symbol) FROM web.HS_TE_STOCK_ADJUSTED WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)   = trunc(sysdate)  ) ) and trunc(TRANSACTION_DATE)  = trunc(sysdate)  group by fk_te_symbol  ) ) PeriodStart ,( SELECT fk_te_symbol, PREVIOUS_CLOSE_PRICE, todays_open, pk_hs_te_stock, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price, per FROM web.HS_TE_STOCK_ADJUSTED WHERE ( fk_te_symbol, TRANSACTION_DATE ) IN ( SELECT fk_te_symbol, MAX(TRANSACTION_DATE) FROM web.HS_TE_STOCK_ADJUSTED WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)   group by fk_te_symbol )) PeriodEnd,  ( SELECT MAX(TRANSACTION_DATE) AS realDate FROM web.HS_TE_STOCK_ADJUSTED ) realtable ,  web.rf_company webc, sacp.rf_company c left outer join SACP.CI_DIVIDEND_VIEW div ON div.pk_rf_company = c.pk_rf_company left outer join ( SELECT FK_RF_COMPANY, value FROM SACP.ST_STATEMENT_VALUES  WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 AND ( FK_RF_COMPANY, PERIOD_DATE ) IN ( SELECT FK_RF_COMPANY, MAX(PERIOD_DATE) FROM SACP.ST_STATEMENT_VALUES WHERE FK_STATEMENT_TYPE_ID = 3 AND st_columns_id = 12 GROUP BY FK_RF_COMPANY ) ) Yield ON Yield.FK_RF_COMPANY = div.pk_rf_company , sacp.rf_sector s, sacp.rf_company comp, SACP.CI_SHARE_PROFILE_HIST_VIEW prof, efp.te_stock st ,  web.RATIO_REPORT RATIO_REPORT WHERE periodstart.fk_te_symbol = periodend.fk_te_symbol AND period.fk_te_symbol = periodend.fk_te_symbol AND c.pk_rf_company = to_number(period.fk_te_symbol) AND  Comp.PK_RF_SECTOR = S.PK_RF_SECTOR AND Comp.PK_RF_COMPANY = C.PK_RF_COMPANY AND prof.fk_rf_company = c.pk_rf_company AND RATIO_REPORT.FK_RF_COMPANY = c.pk_rf_company AND to_char(prof.asat_date, 'yyyy') = to_char(realtable.realDate, 'yyyy')  AND webc.pk_rf_company = c.pk_rf_company AND period.fk_te_symbol = st.fk_te_symbol AND comp.MARKET_TYPE='M') t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>SELECT DISTINCT * FROM (   select  webc.PK_RF_COMPANY, webc.Description_EN ACRYNOM_NAME, webc.DESCRIPTION_EN ACRYNOM_EN, webc.LONG_DESCRIPTION_EN LONG_DESCRIPTION, webc.LONG_DESCRIPTION_AR, PeriodEnd.TRANSACTION_DATE PERIOD_END_DATE, c.pk_rf_sector , c.name_AR SECTOR_NAME , Period.high_price, Period.low_price, (periodend.calc_close_price - PeriodStart.beginPRICE) change, case  when  to_number(PeriodStart.beginPRICE)=0 then  0  else  100* to_number((periodend.calc_close_price - PeriodStart.beginPRICE)) /to_number(PeriodStart.beginPRICE)   end as changepercent, Period.no_of_trades,  PeriodStart.beginPRICE, PeriodEnd.calc_close_price close_price, Period.value,  Period.volume ,  PeriodEnd.PREVIOUS_CLOSE_PRICE,  PeriodEnd.calc_close_price LAST_TRADE_PRICE , (periodend.calc_close_price - YTDSTART.YTDopen_price) YTDCHANGE,  case  when  YTDSTART.YTDopen_price=0 then  0  else  100* to_number((periodend.calc_close_price - YTDSTART.YTDopen_price)) /to_number(YTDSTART.YTDopen_price)   end  YTDchangepercent,  MTD.MTDCHANGE,  MTD.MTDchangepercent, PeriodEnd.TODAYS_OPEN_PRICE, c.SORTED_BY, periodEnd.percent_change todays_percent_change,  bondprofile.SIZE_OF_ISSUE_BOND  SIZE_OF_ISSUE_BOND , Ratio_report.NUMBER_OF_SHARES NUMBER_OF_SHARES,  Ratio_report.INITIAL_PRICE INITIAL_PRICE ,  NVL (Ratio_report.INITIAL_PRICE,0)  * NVL(Ratio_report.NUMBER_OF_SHARES, 0)  AS MARKETCAP   FROM  (SELECT FK_FI_SYMBOL,   MAX(high_price) high_price,   MIN(low_price) low_price , SUM(no_of_trades) no_of_trades, SUM(turnover) value, SUM(volume_traded) volume FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE) = trunc(sysdate) group by fk_fi_symbol) Period  LEFT OUTER JOIN  ( select FK_RF_COMPANY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES,INITIAL_PRICE AS INITIAL_PRICE FROM  WEB.RATIO_REPORT REPORT    ) Ratio_report  ON trim(period.FK_FI_SYMBOL) = trim(Ratio_report.FK_RF_COMPANY)  left outer join ( SELECT FK_FI_SYMBOL, SUM(to_number(net_change)) YTDchange FROM web.HS_FI_STOCK  WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') GROUP BY FK_FI_SYMBOL ) YTD ON trim(period.FK_FI_SYMBOL) = trim(ytd.FK_FI_SYMBOL) inner join ( SELECT FK_FI_SYMBOL, CASE WHEN YTDopen_price2 IS NULL THEN YTDopen_price ELSE YTDopen_price2 END AS YTDopen_price FROM ( SELECT * FROM  ( SELECT FK_FI_SYMBOL, to_number(PREVIOUS_CLOSE_PRICE) AS YTDopen_price FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN  ( SELECT MIN(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char( sysdate, 'yyyy')  GROUP  BY FK_FI_SYMBOL ) ) t1 LEFT OUTER JOIN ( SELECT FK_FI_SYMBOL FK_FI_SYMBOL2, to_number( CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE =0 THEN  PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END) AS YTDopen_price2 FROM web.HS_FI_STOCK WHERE ( TRANSACTION_DATE,FK_FI_SYMBOL ) IN ( SELECT MAX(TRANSACTION_DATE), FK_FI_SYMBOL FROM web.HS_FI_STOCK WHERE to_char( TRANSACTION_DATE, 'yyyy') &lt;= to_char( sysdate, 'yyyy') - 1 GROUP BY FK_FI_SYMBOL ) ) t2  ON trim(t1.FK_FI_SYMBOL) = trim(t2.FK_FI_SYMBOL2) ) t ) YTDSTART ON trim(YTD.FK_FI_SYMBOL) = trim(YTDSTART.FK_FI_SYMBOL) left outer join ( SELECT FK_FI_SYMBOL, SUM(net_change) MTDchange, SUM(percent_change) MTDchangepercent FROM web.HS_FI_STOCK WHERE to_char(TRANSACTION_DATE, 'yyyy') = to_char(sysdate, 'yyyy') AND to_char(TRANSACTION_DATE, 'mm')  = to_char(sysdate, 'mm') GROUP BY FK_FI_SYMBOL ) MTD ON trim(period.FK_FI_SYMBOL) = trim(mtd.FK_FI_SYMBOL) ,  ( SELECT FK_FI_SYMBOL, CASE WHEN todays_close_price = 0 THEN previous_close_price ELSE todays_close_price END beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE)  FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)  ) group by FK_FI_SYMBOL  )    UNION ALL SELECT FK_FI_SYMBOL, previous_close_price beginPRICE FROM web.HS_FI_STOCK WHERE  ( FK_FI_SYMBOL,TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE FK_FI_SYMBOL NOT IN ( SELECT DISTINCT  (FK_FI_SYMBOL) FROM web.HS_FI_STOCK WHERE TRANSACTION_DATE &lt; ( SELECT MIN(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)   = trunc(sysdate)  ) ) and trunc(TRANSACTION_DATE)  = trunc(sysdate)  group by FK_FI_SYMBOL  ) ) PeriodStart ,( SELECT FK_FI_SYMBOL, PREVIOUS_CLOSE_PRICE, TODAYS_OPEN_PRICE, TRANSACTION_DATE, percent_change, CASE WHEN TODAYS_CLOSE_PRICE IS NULL OR TODAYS_CLOSE_PRICE = 0 THEN PREVIOUS_CLOSE_PRICE ELSE TODAYS_CLOSE_PRICE END AS calc_close_price   FROM web.HS_FI_STOCK WHERE ( FK_FI_SYMBOL, TRANSACTION_DATE ) IN ( SELECT FK_FI_SYMBOL, MAX(TRANSACTION_DATE) FROM web.HS_FI_STOCK WHERE trunc(TRANSACTION_DATE)  = trunc(sysdate)   group by FK_FI_SYMBOL )) PeriodEnd,    web.FI_COMPANY webc, WEB.RF_SECTOR_SUKUK c, SACP.BOND_ISSUER_PROFILE bondprofile WHERE periodstart.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL AND period.FK_FI_SYMBOL = periodend.FK_FI_SYMBOL       AND period.FK_FI_SYMBOL = webc.PK_RF_COMPANY AND webc.BOND_TYPE = c.SUKUK_TYPE  AND bondprofile.BOND_CODE = webc.PK_RF_COMPANY AND webc.BOND_TYPE IN ('S','G')  AND webc.ACTIVE =1 ) t  order by SORTED_BY asc,PK_RF_COMPANY asc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT distinct y.PK_RF_COMPANY, y.DESCRIPTION_EN AS DESCRIPTION_Name, ADJUSTED.TRANSACTION_DATE AS TRANSACTION_DATE, TODAYS_CLOSE_PRICE AS CLOSE_PRICE, PREVIOUS_CLOSE_PRICE, EARNINGS, SHAREHOLDERS_EQUITY, NUMBER_OF_SHARES AS NUMBER_OF_SHARES, NUMBER_OF_SHARES_FLOATED AS NUMBER_OF_SHARES_FLOATED, Sector.PK_RF_SECTOR, SectorOrder.SORTED_BY, SectorOrder.NAME_EN , IS_SUSPENDED_FOR_REPORTS AS IS_SUSPENDED_FOR_REPORTS, Sector.FOREIGN_COMPANY FROM WEB.RF_COMPANY y, WEB.HS_TE_STOCK_ADJUSTED ADJUSTED, WEB.RATIO_REPORT , SACP.RF_COMPANY Sector, WEB.RF_SECTOR SectorOrder WHERE to_number( y.PK_RF_COMPANY) = to_number(FK_TE_SYMBOL) AND TRUNC(TRANSACTION_DATE) = TRUNC(SYSTIMESTAMP) AND to_number( y.PK_RF_COMPANY) = to_number(FK_RF_COMPANY) AND Sector.PK_RF_SECTOR =SectorOrder.PK_RF_SECTOR AND y.PK_RF_COMPANY = Sector.PK_RF_COMPANY AND Sector.MARKET_TYPE ='M' ORDER BY SectorOrder.SORTED_BY, y.PK_RF_COMPANY </t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -571,20 +571,20 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -616,20 +616,20 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -653,105 +653,105 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
